--- a/datos_productos_ingresar.xlsx
+++ b/datos_productos_ingresar.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\scorecard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2307D57-B774-493C-B79B-E8E9FB579FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,12 +43,6 @@
     <t>empaque</t>
   </si>
   <si>
-    <t>bultos/tarima</t>
-  </si>
-  <si>
-    <t>cubicaje/tarima</t>
-  </si>
-  <si>
     <t>demanda_mes1</t>
   </si>
   <si>
@@ -85,21 +85,6 @@
     <t>t_entrega_prom</t>
   </si>
   <si>
-    <t>inv_final/bultos</t>
-  </si>
-  <si>
-    <t>inv_prom/bultos</t>
-  </si>
-  <si>
-    <t>inv_trans/bultos</t>
-  </si>
-  <si>
-    <t>precio_uni/bulto</t>
-  </si>
-  <si>
-    <t>costo_uni/bulto</t>
-  </si>
-  <si>
     <t>factor_escazes</t>
   </si>
   <si>
@@ -167,13 +152,34 @@
   </si>
   <si>
     <t>Ecuador</t>
+  </si>
+  <si>
+    <t>bultos_tarima</t>
+  </si>
+  <si>
+    <t>cubicaje_tarima</t>
+  </si>
+  <si>
+    <t>inv_final_bultos</t>
+  </si>
+  <si>
+    <t>inv_prom_bultos</t>
+  </si>
+  <si>
+    <t>inv_trans_bultos</t>
+  </si>
+  <si>
+    <t>precio_uni_bulto</t>
+  </si>
+  <si>
+    <t>costo_uni_bulto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +189,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,24 +239,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +303,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -314,6 +337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -348,9 +372,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,14 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,90 +580,90 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5157</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -687,7 +714,7 @@
         <v>242</v>
       </c>
       <c r="W2">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="X2">
         <v>181</v>
@@ -702,30 +729,30 @@
         <v>41.6</v>
       </c>
       <c r="AB2">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="AC2">
         <v>1.38</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6377</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -797,24 +824,24 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6357</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -886,24 +913,24 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3788</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -975,24 +1002,24 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7185</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1055,7 +1082,7 @@
         <v>56</v>
       </c>
       <c r="AA6">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AB6">
         <v>14.42</v>
@@ -1064,24 +1091,24 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9290</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1153,24 +1180,24 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9119</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1226,7 +1253,7 @@
       <c r="X8">
         <v>134</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <v>85</v>
       </c>
       <c r="Z8">
@@ -1242,24 +1269,24 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4662</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1322,7 +1349,7 @@
         <v>89</v>
       </c>
       <c r="AA9">
-        <v>38.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="AB9">
         <v>5.44</v>
@@ -1331,24 +1358,24 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7598</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1414,30 +1441,30 @@
         <v>10.47</v>
       </c>
       <c r="AB10">
-        <v>19.15</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="AC10">
         <v>1.27</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9783</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1488,7 +1515,7 @@
         <v>147</v>
       </c>
       <c r="W11">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="X11">
         <v>67</v>
@@ -1506,7 +1533,7 @@
         <v>25.2</v>
       </c>
       <c r="AC11">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/datos_productos_ingresar.xlsx
+++ b/datos_productos_ingresar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\scorecard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2307D57-B774-493C-B79B-E8E9FB579FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2B808A-D470-48A1-8364-17C916372B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +1164,7 @@
       <c r="X7">
         <v>104</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <v>157</v>
       </c>
       <c r="Z7">
